--- a/DA/src/main/resources/excel-templates/interest-template.xlsx
+++ b/DA/src/main/resources/excel-templates/interest-template.xlsx
@@ -100,9 +100,6 @@
     <t>合同号</t>
   </si>
   <si>
-    <t>#{ser}</t>
-  </si>
-  <si>
     <t>#{money}</t>
   </si>
   <si>
@@ -170,6 +167,10 @@
       <t xml:space="preserve">
 出纳:                    财务部长:                董事长:  </t>
     </r>
+  </si>
+  <si>
+    <t>#ser</t>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -2173,7 +2174,7 @@
   <dimension ref="A1:I9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N20" sqref="N20"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -2245,55 +2246,55 @@
     </row>
     <row r="4" spans="1:9" ht="19.5" customHeight="1">
       <c r="A4" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B4" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="C4" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="D4" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="D4" s="5" t="s">
+      <c r="E4" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="E4" s="3" t="s">
+      <c r="F4" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F4" s="2" t="s">
+      <c r="G4" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="G4" s="2" t="s">
+      <c r="H4" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="H4" s="2" t="s">
+      <c r="I4" s="2" t="s">
         <v>18</v>
-      </c>
-      <c r="I4" s="2" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="30" customHeight="1">
       <c r="A5" s="9" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B5" s="9"/>
       <c r="C5" s="9" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D5" s="9"/>
       <c r="E5" s="9"/>
       <c r="F5" s="9"/>
       <c r="G5" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="H5" s="11" t="s">
         <v>22</v>
-      </c>
-      <c r="H5" s="11" t="s">
-        <v>23</v>
       </c>
       <c r="I5" s="12"/>
     </row>
     <row r="6" spans="1:9">
       <c r="A6" s="10" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B6" s="10"/>
       <c r="C6" s="10"/>

--- a/DA/src/main/resources/excel-templates/interest-template.xlsx
+++ b/DA/src/main/resources/excel-templates/interest-template.xlsx
@@ -8,8 +8,6 @@
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
@@ -2354,30 +2352,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
-  <sheetData/>
-  <phoneticPr fontId="16" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
-  <sheetData/>
-  <phoneticPr fontId="16" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>